--- a/data.xlsx
+++ b/data.xlsx
@@ -76,7 +76,7 @@
     <t>H</t>
   </si>
   <si>
-    <t>5, 6</t>
+    <t>5,6</t>
   </si>
   <si>
     <t>I</t>
@@ -88,7 +88,7 @@
     <t>J</t>
   </si>
   <si>
-    <t>7, 9, 10</t>
+    <t>7,9,10</t>
   </si>
 </sst>
 </file>
@@ -444,7 +444,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.2" defaultColWidth="8.83203125" customHeight="1"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440"/>
+    <workbookView xWindow="-27680" yWindow="1520" windowWidth="28040" windowHeight="17440"/>
   </bookViews>
   <sheets>
     <sheet sheetId="1" name="Tasks" state="visible" r:id="rId4"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>WBS</t>
   </si>
@@ -49,46 +49,25 @@
     <t>B</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>C</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>D</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>E</t>
   </si>
   <si>
     <t>F</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>5,6</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>J</t>
-  </si>
-  <si>
-    <t>7,9,10</t>
+    <t>5</t>
   </si>
 </sst>
 </file>
@@ -441,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.2" defaultColWidth="8.83203125" customHeight="1"/>
@@ -487,22 +466,22 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" ht="16" customHeight="1" spans="2:9" x14ac:dyDescent="0.25">
@@ -510,19 +489,22 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -530,74 +512,77 @@
     </row>
     <row r="4" ht="16" customHeight="1" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="16" customHeight="1" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F5">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="G5">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H5">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" ht="16" customHeight="1" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6" s="1">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F6">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H6">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -605,131 +590,27 @@
     </row>
     <row r="7" ht="16" customHeight="1" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7">
         <v>16</v>
       </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
       <c r="F7">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="G7">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="H7">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="I7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" ht="16" customHeight="1" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8">
-        <v>6</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>9</v>
-      </c>
-      <c r="G8">
-        <v>5</v>
-      </c>
-      <c r="H8">
-        <v>11</v>
-      </c>
-      <c r="I8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" ht="16" customHeight="1" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9">
-        <v>6</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9">
-        <v>7</v>
-      </c>
-      <c r="F9">
-        <v>13</v>
-      </c>
-      <c r="G9">
-        <v>7</v>
-      </c>
-      <c r="H9">
-        <v>13</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" ht="16" customHeight="1" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>9</v>
-      </c>
-      <c r="F10">
-        <v>11</v>
-      </c>
-      <c r="G10">
-        <v>11</v>
-      </c>
-      <c r="H10">
-        <v>13</v>
-      </c>
-      <c r="I10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" ht="16" customHeight="1" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11">
-        <v>3</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11">
-        <v>13</v>
-      </c>
-      <c r="F11">
-        <v>16</v>
-      </c>
-      <c r="G11">
-        <v>13</v>
-      </c>
-      <c r="H11">
-        <v>16</v>
-      </c>
-      <c r="I11">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-27680" yWindow="1520" windowWidth="28040" windowHeight="17440"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880"/>
   </bookViews>
   <sheets>
     <sheet sheetId="1" name="Tasks" state="visible" r:id="rId4"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>WBS</t>
   </si>
@@ -55,19 +55,31 @@
     <t>C</t>
   </si>
   <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>5</t>
+    <t>H</t>
   </si>
 </sst>
 </file>
@@ -420,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.2" defaultColWidth="8.83203125" customHeight="1"/>
@@ -466,19 +478,19 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -489,25 +501,25 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H3">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" ht="16" customHeight="1" spans="2:9" x14ac:dyDescent="0.25">
@@ -515,22 +527,22 @@
         <v>12</v>
       </c>
       <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
         <v>5</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4">
-        <v>7</v>
-      </c>
-      <c r="F4">
-        <v>12</v>
-      </c>
       <c r="G4">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H4">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -538,25 +550,25 @@
     </row>
     <row r="5" ht="16" customHeight="1" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C5">
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
         <v>9</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5">
-        <v>7</v>
-      </c>
-      <c r="F5">
-        <v>16</v>
-      </c>
       <c r="G5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H5">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -567,22 +579,22 @@
         <v>15</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E6">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F6">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G6">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H6">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -590,28 +602,80 @@
     </row>
     <row r="7" ht="16" customHeight="1" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7">
+        <v>15</v>
+      </c>
+      <c r="F7">
+        <v>23</v>
+      </c>
+      <c r="G7">
+        <v>15</v>
+      </c>
+      <c r="H7">
+        <v>23</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" ht="16" customHeight="1" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>9</v>
+      </c>
+      <c r="F8">
+        <v>13</v>
+      </c>
+      <c r="G8">
+        <v>19</v>
+      </c>
+      <c r="H8">
+        <v>23</v>
+      </c>
+      <c r="I8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" ht="16" customHeight="1" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9">
+        <v>15</v>
+      </c>
+      <c r="F9">
+        <v>22</v>
+      </c>
+      <c r="G9">
         <v>16</v>
       </c>
-      <c r="C7">
-        <v>5</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7">
-        <v>16</v>
-      </c>
-      <c r="F7">
-        <v>21</v>
-      </c>
-      <c r="G7">
-        <v>16</v>
-      </c>
-      <c r="H7">
-        <v>21</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
+      <c r="H9">
+        <v>23</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
